--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3797.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3797.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.043312116066291</v>
+        <v>4.020338535308838</v>
       </c>
       <c r="B1">
-        <v>2.252395213244682</v>
+        <v>5.396963119506836</v>
       </c>
       <c r="C1">
-        <v>2.576435298623633</v>
+        <v>2.341854333877563</v>
       </c>
       <c r="D1">
-        <v>4.132044517198138</v>
+        <v>1.558398723602295</v>
       </c>
       <c r="E1">
-        <v>1.125055401713106</v>
+        <v>1.489251255989075</v>
       </c>
     </row>
   </sheetData>
